--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t xml:space="preserve">Math Function </t>
   </si>
@@ -127,6 +127,54 @@
   </si>
   <si>
     <t xml:space="preserve">fail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product price </t>
+  </si>
+  <si>
+    <t>product qut</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cost </t>
+  </si>
+  <si>
+    <t>SUMPRODUCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp </t>
+  </si>
+  <si>
+    <t>sal</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Validation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile no </t>
+  </si>
+  <si>
+    <t>Dob</t>
   </si>
 </sst>
 </file>
@@ -176,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +232,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -945,12 +997,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>249</v>
+      </c>
+      <c r="E2">
+        <f>C2*B2</f>
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>4.5</v>
+      </c>
+      <c r="C3">
+        <v>546</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">C3*B3</f>
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>233</v>
+      </c>
+      <c r="C4">
+        <v>657</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>153081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>233</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="E8">
+        <f>SUM(E2:E5)</f>
+        <v>159490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <f>SUMPRODUCT(C2:C5,B2:B5)</f>
+        <v>159490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="E12">
+        <f>SUMPRODUCT(B2:B5,C2:C5)</f>
+        <v>159490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13">
+        <f>SUMPRODUCT(B2:B5,C2:C5)</f>
+        <v>159490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43686</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17">
+        <f>B17*0.1</f>
+        <v>500</v>
+      </c>
+      <c r="I17">
+        <f>B17+H17</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>6000</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43689</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H19" si="1">B18*0.1</f>
+        <v>600</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I19" si="2">B18+H18</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>7000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>8000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20">
+        <f>B20*0.1</f>
+        <v>800</v>
+      </c>
+      <c r="I20">
+        <f>B20+H20</f>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="F23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4">
+        <f ca="1">TODAY()</f>
+        <v>43696</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F23:I23"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Valid Emp name" error="Please Enter a valid Emp name" sqref="F25">
+      <formula1>$A$17:$A$21</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
+      <formula1>TODAY()-1000</formula1>
+      <formula2>TODAY()=1000</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
+      <formula1>43473</formula1>
+      <formula2>TODAY()</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -2,21 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t xml:space="preserve">Math Function </t>
   </si>
@@ -175,6 +177,72 @@
   </si>
   <si>
     <t>Dob</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text Function </t>
+  </si>
+  <si>
+    <t>proper</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function </t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>deepak</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    deepak          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        deepak kumar    </t>
+  </si>
+  <si>
+    <t>trim&amp;len</t>
+  </si>
+  <si>
+    <t>Concinate</t>
+  </si>
+  <si>
+    <t>Deepak kumar</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>raj kumar</t>
   </si>
 </sst>
 </file>
@@ -198,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +279,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,22 +294,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M31"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -771,6 +863,18 @@
         <v>2</v>
       </c>
     </row>
+    <row r="32" spans="8:13">
+      <c r="L32">
+        <f ca="1">RANDBETWEEN(100,200)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12">
+      <c r="L33">
+        <f ca="1">RANDBETWEEN(100,200)</f>
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -778,21 +882,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -984,6 +1089,12 @@
       <c r="I12">
         <f>COUNTIF(D3:D7,"&lt;30")</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="I16">
+        <f ca="1">RAND()</f>
+        <v>0.78545730612005826</v>
       </c>
     </row>
   </sheetData>
@@ -997,9 +1108,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -1083,11 +1195,11 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="E8">
         <f>SUM(E2:E5)</f>
         <v>159490</v>
@@ -1138,7 +1250,7 @@
       <c r="B17">
         <v>5000</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>43686</v>
       </c>
       <c r="G17" t="s">
@@ -1160,7 +1272,7 @@
       <c r="B18">
         <v>6000</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>43689</v>
       </c>
       <c r="G18" t="s">
@@ -1222,12 +1334,12 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="25" spans="1:9">
       <c r="F25" t="s">
@@ -1235,9 +1347,9 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <f ca="1">TODAY()</f>
-        <v>43696</v>
+        <v>43717</v>
       </c>
     </row>
   </sheetData>
@@ -1263,4 +1375,319 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>130</v>
+      </c>
+      <c r="D2" s="3">
+        <f>VLOOKUP("a",A2:B5,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>260</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>390</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="str">
+        <f>PROPER(B3)</f>
+        <v>Deepak</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="str">
+        <f>UPPER(B3)</f>
+        <v>DEEPAK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="str">
+        <f>LOWER(C4)</f>
+        <v>deepak</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="str">
+        <f>LEFT(B3,4)</f>
+        <v>deep</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="str">
+        <f>RIGHT(B3,3)</f>
+        <v>pak</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="str">
+        <f>MID(B3,2,4)</f>
+        <v>eepa</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9">
+        <f>FIND("a",B3,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CHAR(85)</f>
+        <v>U</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="str">
+        <f>CHAR(102)</f>
+        <v>f</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <f>LEN(B12)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="str">
+        <f>TRIM(B12)</f>
+        <v>deepak</v>
+      </c>
+      <c r="D13">
+        <f>LEN(C13)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <f>LEN(B14)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="str">
+        <f>TRIM(B14)</f>
+        <v>deepak kumar</v>
+      </c>
+      <c r="D15">
+        <f>LEN(C15)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="str">
+        <f>TRIM(LEN(B14))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18">
+        <f>LEN(TRIM(B14))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="str">
+        <f>"Hello"&amp;B20</f>
+        <v>HelloDeepak</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" t="str">
+        <f>"Hello"&amp;"  "&amp;B20</f>
+        <v>Hello  Deepak</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" t="str">
+        <f>REPLACE(B3,2,1,"i")</f>
+        <v>diepak</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="C24" t="str">
+        <f>REPT(B3,2)</f>
+        <v>deepakdeepak</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t xml:space="preserve">Math Function </t>
   </si>
@@ -243,6 +244,15 @@
   </si>
   <si>
     <t>raj kumar</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>Find</t>
+  </si>
+  <si>
+    <t>replace</t>
   </si>
 </sst>
 </file>
@@ -866,13 +876,13 @@
     <row r="32" spans="8:13">
       <c r="L32">
         <f ca="1">RANDBETWEEN(100,200)</f>
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="12:12">
       <c r="L33">
         <f ca="1">RANDBETWEEN(100,200)</f>
-        <v>128</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -885,8 +895,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1094,7 +1104,7 @@
     <row r="16" spans="1:12">
       <c r="I16">
         <f ca="1">RAND()</f>
-        <v>0.78545730612005826</v>
+        <v>0.55843229060417698</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +1359,7 @@
     <row r="28" spans="1:9">
       <c r="A28" s="2">
         <f ca="1">TODAY()</f>
-        <v>43717</v>
+        <v>43720</v>
       </c>
     </row>
   </sheetData>
@@ -1690,4 +1700,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <f>FIND("p",A2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="str">
+        <f>REPLACE(A2,2,1,"P")</f>
+        <v>aPple</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="str">
+        <f>REPLACE(FIND(A2,A2,1),1,1,"P")</f>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="str">
+        <f>REPLACE(FIND("p",A2,1),1,2,"P")</f>
+        <v>P</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>